--- a/countries.xlsx
+++ b/countries.xlsx
@@ -1094,7 +1094,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1229,17 +1229,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFCC00"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1583,14 +1572,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1935,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2571,19 +2554,19 @@
       <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="2">
-        <v>-79.871099999999998</v>
-      </c>
-      <c r="D29" s="2">
-        <v>43.255699999999997</v>
+      <c r="C29">
+        <v>-75.697199999999995</v>
+      </c>
+      <c r="D29">
+        <v>45.421500000000002</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>['CAN',-79.8711,43.2557]</v>
+        <v>['CAN',-75.6972,45.4215]</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215]</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2605,7 +2588,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47]</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2627,7 +2610,7 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30]</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2649,7 +2632,7 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35]</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2671,7 +2654,7 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8]</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2693,7 +2676,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6]</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2715,7 +2698,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0]</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2737,7 +2720,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1]</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2759,7 +2742,7 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4]</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2781,7 +2764,7 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10]</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2803,7 +2786,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5]</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2825,7 +2808,7 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0]</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2847,7 +2830,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35]</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2869,7 +2852,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75]</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2891,7 +2874,7 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51]</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2913,7 +2896,7 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5]</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2935,7 +2918,7 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56]</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2957,7 +2940,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19]</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2979,7 +2962,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28]</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -3001,7 +2984,7 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2]</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3023,7 +3006,7 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27]</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3045,7 +3028,7 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15]</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3067,7 +3050,7 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40]</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3089,7 +3072,7 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59]</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3111,7 +3094,7 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8]</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3133,7 +3116,7 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64]</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3155,7 +3138,7 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18]</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3177,7 +3160,7 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75]</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3199,7 +3182,7 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46]</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3221,7 +3204,7 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1]</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3243,7 +3226,7 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54]</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3265,7 +3248,7 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42]</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3287,7 +3270,7 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8]</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3309,7 +3292,7 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11]</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3331,7 +3314,7 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47]</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3353,7 +3336,7 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12]</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3375,7 +3358,7 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2]</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3397,7 +3380,7 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" si="1"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39]</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3419,7 +3402,7 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="3">F66&amp;","&amp;E67</f>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72]</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3441,7 +3424,7 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5]</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3463,7 +3446,7 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4]</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3485,7 +3468,7 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5]</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3507,7 +3490,7 @@
       </c>
       <c r="F71" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15]</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3529,7 +3512,7 @@
       </c>
       <c r="F72" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17]</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3551,7 +3534,7 @@
       </c>
       <c r="F73" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19]</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3573,7 +3556,7 @@
       </c>
       <c r="F74" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47]</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3595,7 +3578,7 @@
       </c>
       <c r="F75" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5]</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3617,7 +3600,7 @@
       </c>
       <c r="F76" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20]</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3639,7 +3622,7 @@
       </c>
       <c r="F77" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53]</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3661,7 +3644,7 @@
       </c>
       <c r="F78" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32]</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3683,7 +3666,7 @@
       </c>
       <c r="F79" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33]</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3705,7 +3688,7 @@
       </c>
       <c r="F80" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65]</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3727,7 +3710,7 @@
       </c>
       <c r="F81" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5]</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3749,7 +3732,7 @@
       </c>
       <c r="F82" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83]</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3771,7 +3754,7 @@
       </c>
       <c r="F83" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25]</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3793,7 +3776,7 @@
       </c>
       <c r="F84" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31]</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3815,7 +3798,7 @@
       </c>
       <c r="F85" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36]</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3837,7 +3820,7 @@
       </c>
       <c r="F86" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48]</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3859,7 +3842,7 @@
       </c>
       <c r="F87" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1]</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3881,7 +3864,7 @@
       </c>
       <c r="F88" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41]</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3903,7 +3886,7 @@
       </c>
       <c r="F89" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13]</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3925,7 +3908,7 @@
       </c>
       <c r="F90" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37]</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3947,7 +3930,7 @@
       </c>
       <c r="F91" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0]</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3969,7 +3952,7 @@
       </c>
       <c r="F92" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34]</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3991,7 +3974,7 @@
       </c>
       <c r="F93" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18]</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -4013,7 +3996,7 @@
       </c>
       <c r="F94" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83]</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -4035,7 +4018,7 @@
       </c>
       <c r="F95" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5]</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -4057,7 +4040,7 @@
       </c>
       <c r="F96" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25]</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -4079,7 +4062,7 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7]</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -4101,7 +4084,7 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5]</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -4123,7 +4106,7 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56]</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -4145,7 +4128,7 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75]</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -4167,7 +4150,7 @@
       </c>
       <c r="F101" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57]</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -4189,7 +4172,7 @@
       </c>
       <c r="F102" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32]</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -4211,7 +4194,7 @@
       </c>
       <c r="F103" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47]</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -4233,7 +4216,7 @@
       </c>
       <c r="F104" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20]</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -4255,7 +4238,7 @@
       </c>
       <c r="F105" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23]</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -4277,7 +4260,7 @@
       </c>
       <c r="F106" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83]</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -4299,7 +4282,7 @@
       </c>
       <c r="F107" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17]</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -4321,7 +4304,7 @@
       </c>
       <c r="F108" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83]</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -4343,7 +4326,7 @@
       </c>
       <c r="F109" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22]</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -4365,7 +4348,7 @@
       </c>
       <c r="F110" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42]</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -4387,7 +4370,7 @@
       </c>
       <c r="F111" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46]</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -4409,7 +4392,7 @@
       </c>
       <c r="F112" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25]</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -4431,7 +4414,7 @@
       </c>
       <c r="F113" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20]</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -4453,7 +4436,7 @@
       </c>
       <c r="F114" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5]</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -4475,7 +4458,7 @@
       </c>
       <c r="F115" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5]</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -4497,7 +4480,7 @@
       </c>
       <c r="F116" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22]</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -4519,7 +4502,7 @@
       </c>
       <c r="F117" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5]</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -4541,7 +4524,7 @@
       </c>
       <c r="F118" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16]</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -4563,7 +4546,7 @@
       </c>
       <c r="F119" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10]</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -4585,7 +4568,7 @@
       </c>
       <c r="F120" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13]</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4607,7 +4590,7 @@
       </c>
       <c r="F121" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5]</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4629,7 +4612,7 @@
       </c>
       <c r="F122" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62]</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4651,7 +4634,7 @@
       </c>
       <c r="F123" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28]</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4673,7 +4656,7 @@
       </c>
       <c r="F124" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41]</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4695,7 +4678,7 @@
       </c>
       <c r="F125" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21]</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4717,7 +4700,7 @@
       </c>
       <c r="F126" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30]</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4739,7 +4722,7 @@
       </c>
       <c r="F127" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9]</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4761,7 +4744,7 @@
       </c>
       <c r="F128" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10]</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4783,7 +4766,7 @@
       </c>
       <c r="F129" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13]</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4805,7 +4788,7 @@
       </c>
       <c r="F130" t="str">
         <f t="shared" si="3"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6]</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4827,7 +4810,7 @@
       </c>
       <c r="F131" t="str">
         <f t="shared" ref="F131:F180" si="5">F130&amp;","&amp;E131</f>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52]</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4849,7 +4832,7 @@
       </c>
       <c r="F132" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25]</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4871,7 +4854,7 @@
       </c>
       <c r="F133" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40]</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4893,7 +4876,7 @@
       </c>
       <c r="F134" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5]</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4915,7 +4898,7 @@
       </c>
       <c r="F135" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23]</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4937,7 +4920,7 @@
       </c>
       <c r="F136" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5]</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4959,7 +4942,7 @@
       </c>
       <c r="F137" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46]</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4981,7 +4964,7 @@
       </c>
       <c r="F138" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60]</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -5003,7 +4986,7 @@
       </c>
       <c r="F139" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2]</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -5025,7 +5008,7 @@
       </c>
       <c r="F140" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5]</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -5047,7 +5030,7 @@
       </c>
       <c r="F141" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25]</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -5069,7 +5052,7 @@
       </c>
       <c r="F142" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15]</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -5091,7 +5074,7 @@
       </c>
       <c r="F143" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0]</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -5113,7 +5096,7 @@
       </c>
       <c r="F144" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14]</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -5135,7 +5118,7 @@
       </c>
       <c r="F145" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8]</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -5157,7 +5140,7 @@
       </c>
       <c r="F146" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5]</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -5179,7 +5162,7 @@
       </c>
       <c r="F147" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83]</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -5201,7 +5184,7 @@
       </c>
       <c r="F148" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9]</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -5223,7 +5206,7 @@
       </c>
       <c r="F149" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10]</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -5245,7 +5228,7 @@
       </c>
       <c r="F150" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44]</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -5267,7 +5250,7 @@
       </c>
       <c r="F151" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4]</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -5289,7 +5272,7 @@
       </c>
       <c r="F152" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67]</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -5311,7 +5294,7 @@
       </c>
       <c r="F153" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46]</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -5333,7 +5316,7 @@
       </c>
       <c r="F154" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62]</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -5355,7 +5338,7 @@
       </c>
       <c r="F155" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5]</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -5377,7 +5360,7 @@
       </c>
       <c r="F156" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35]</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -5399,7 +5382,7 @@
       </c>
       <c r="F157" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15]</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -5421,7 +5404,7 @@
       </c>
       <c r="F158" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8]</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -5443,7 +5426,7 @@
       </c>
       <c r="F159" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15]</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -5465,7 +5448,7 @@
       </c>
       <c r="F160" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39]</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -5487,7 +5470,7 @@
       </c>
       <c r="F161" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40]</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -5509,7 +5492,7 @@
       </c>
       <c r="F162" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0]</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -5531,7 +5514,7 @@
       </c>
       <c r="F163" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11]</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -5553,7 +5536,7 @@
       </c>
       <c r="F164" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34]</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -5575,7 +5558,7 @@
       </c>
       <c r="F165" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39]</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -5597,7 +5580,7 @@
       </c>
       <c r="F166" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5]</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -5619,7 +5602,7 @@
       </c>
       <c r="F167" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6]</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -5641,7 +5624,7 @@
       </c>
       <c r="F168" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1]</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -5663,7 +5646,7 @@
       </c>
       <c r="F169" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49]</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -5685,7 +5668,7 @@
       </c>
       <c r="F170" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33]</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -5695,10 +5678,10 @@
       <c r="B171" t="s">
         <v>339</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171">
         <v>-95.420679000000007</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171">
         <v>37.772537</v>
       </c>
       <c r="E171" t="str">
@@ -5707,7 +5690,7 @@
       </c>
       <c r="F171" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537]</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -5729,7 +5712,7 @@
       </c>
       <c r="F172" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41]</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -5751,7 +5734,7 @@
       </c>
       <c r="F173" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8]</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -5762,18 +5745,18 @@
         <v>345</v>
       </c>
       <c r="C174">
-        <v>106</v>
+        <v>105.8342</v>
       </c>
       <c r="D174">
-        <v>16</v>
+        <v>21.027799999999999</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="4"/>
-        <v>['VNM',106,16]</v>
+        <v>['VNM',105.8342,21.0278]</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8],['VNM',106,16]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8],['VNM',105.8342,21.0278]</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5795,7 +5778,7 @@
       </c>
       <c r="F175" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8],['VNM',106,16],['VUT',167,-16]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8],['VNM',105.8342,21.0278],['VUT',167,-16]</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5817,7 +5800,7 @@
       </c>
       <c r="F176" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8],['VNM',106,16],['VUT',167,-16],['PSE',35.25,32]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8],['VNM',105.8342,21.0278],['VUT',167,-16],['PSE',35.25,32]</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5839,7 +5822,7 @@
       </c>
       <c r="F177" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8],['VNM',106,16],['VUT',167,-16],['PSE',35.25,32],['YEM',48,15]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8],['VNM',105.8342,21.0278],['VUT',167,-16],['PSE',35.25,32],['YEM',48,15]</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -5861,7 +5844,7 @@
       </c>
       <c r="F178" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8],['VNM',106,16],['VUT',167,-16],['PSE',35.25,32],['YEM',48,15],['ZAF',24,-29]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8],['VNM',105.8342,21.0278],['VUT',167,-16],['PSE',35.25,32],['YEM',48,15],['ZAF',24,-29]</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -5883,7 +5866,7 @@
       </c>
       <c r="F179" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8],['VNM',106,16],['VUT',167,-16],['PSE',35.25,32],['YEM',48,15],['ZAF',24,-29],['ZMB',30,-15]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8],['VNM',105.8342,21.0278],['VUT',167,-16],['PSE',35.25,32],['YEM',48,15],['ZAF',24,-29],['ZMB',30,-15]</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -5905,7 +5888,7 @@
       </c>
       <c r="F180" t="str">
         <f t="shared" si="5"/>
-        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-79.8711,43.2557],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8],['VNM',106,16],['VUT',167,-16],['PSE',35.25,32],['YEM',48,15],['ZAF',24,-29],['ZMB',30,-15],['ZWE',30,-20]</v>
+        <v>['AFG',65,33],['AGO',18.5,-12.5],['ALB',20,41],['ARE',54,24],['ARG',-64,-34],['ARM',45,40],['ATA',0,-90],['ATF',0,0],['AUS',133,-27],['AUT',13.33,47.33],['AZE',47.5,40.5],['BDI',30,-3.5],['BEL',4,50.83],['BEN',2.25,9.5],['BFA',-2,13],['BGD',90,24],['BGR',25,43],['BHS',-76,24.25],['BIH',18,44],['BLR',28,53],['BLZ',-88.75,17.25],['BMU',-64.75,32.33],['BOL',-65,-17],['BRA',-55,-10],['BRN',114.67,4.5],['BTN',90.5,27.5],['BWA',24,-22],['CAF',21,7],['CAN',-75.6972,45.4215],['CHE',8,47],['CHL',-71,-30],['CHN',105,35],['CIV',-5,8],['CMR',12,6],['COD',25,0],['COG',15,-1],['COL',-72,4],['CRI',-84,10],['CUB',-80,21.5],['-99',0,0],['CYP',33,35],['CZE',15.5,49.75],['DEU',9,51],['DJI',43,11.5],['DNK',10,56],['DOM',-70.67,19],['DZA',3,28],['ECU',-77.5,-2],['EGY',30,27],['ERI',39,15],['ESP',-4,40],['EST',26,59],['ETH',38,8],['FIN',26,64],['FJI',175,-18],['FLK',-59,-51.75],['FRA',2,46],['GAB',11.75,-1],['GBR',-2,54],['GEO',43.5,42],['GHA',-2,8],['GIN',-10,11],['GMB',-16.57,13.47],['GNB',-15,12],['GNQ',10,2],['GRC',22,39],['GRL',-40,72],['GTM',-90.25,15.5],['GUF',-53,4],['GUY',-59,5],['HND',-86.5,15],['HRV',15.5,45.17],['HTI',-72.42,19],['HUN',20,47],['IDN',120,-5],['IND',77,20],['IRL',-8,53],['IRN',53,32],['IRQ',44,33],['ISL',-18,65],['ISR',34.75,31.5],['ITA',12.83,42.83],['JAM',-77.5,18.25],['JOR',36,31],['JPN',138,36],['KAZ',68,48],['KEN',38,1],['KGZ',75,41],['KHM',105,13],['KOR',127.5,37],['CS-KM',0,0],['KWT',47.66,29.34],['LAO',105,18],['LBN',35.83,33.83],['LBR',-9.5,6.5],['LBY',17,25],['LKA',81,7],['LSO',28.5,-29.5],['LTU',24,56],['LUX',6.17,49.75],['LVA',25,57],['MAR',-5,32],['MDA',29,47],['MDG',47,-20],['MEX',-102,23],['MKD',22,41.83],['MLI',-4,17],['MLT',14.58,35.83],['MMR',98,22],['MNE',19,42],['MNG',105,46],['MOZ',35,-18.25],['MRT',-12,20],['MWI',34,-13.5],['MYS',112.5,2.5],['NAM',17,-22],['NCL',165.5,-21.5],['NER',8,16],['NGA',8,10],['NIC',-85,13],['NLD',5.75,52.5],['NOR',10,62],['NPL',84,28],['NZL',174,-41],['OMN',57,21],['PAK',70,30],['PAN',-80,9],['PER',-76,-10],['PHL',122,13],['PNG',147,-6],['POL',20,52],['PRI',-66.5,18.25],['PRK',127,40],['PRT',-8,39.5],['PRY',-58,-23],['QAT',51.25,25.5],['ROU',25,46],['RUS',100,60],['RWA',30,-2],['ESH',-13,24.5],['SAU',45,25],['SDN',30,15],['SSD',0,0],['SEN',-14,14],['SLB',159,-8],['SLE',-11.5,8.5],['SLV',-88.92,13.83],['-99',46,9],['SOM',49,10],['SRB',21,44],['SUR',-56,4],['SVK',19.5,48.67],['SVN',15,46],['SWE',15,62],['SWZ',31.5,-26.5],['SYR',38,35],['TCD',19,15],['TGO',1.17,8],['THA',100,15],['TJK',71,39],['TKM',60,40],['TLS',0,0],['TTO',-61,11],['TUN',9,34],['TUR',35,39],['TWN',121,23.5],['TZA',35,-6],['UGA',32,1],['UKR',32,49],['URY',-56,-33],['USA',-95.420679,37.772537],['UZB',64,41],['VEN',-66,8],['VNM',105.8342,21.0278],['VUT',167,-16],['PSE',35.25,32],['YEM',48,15],['ZAF',24,-29],['ZMB',30,-15],['ZWE',30,-20]</v>
       </c>
     </row>
   </sheetData>
